--- a/calibra.xlsx
+++ b/calibra.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,28 +422,289 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0.7841132245356331</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>-0.042700</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>-0.042700</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>-0.025000</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>-0.025000</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.2803880689265303</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>-0.043938</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.102535</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>95.317195</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.736367</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.399864792036402</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>-0.044007</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.105677</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>93.363265</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.050039</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.100144414287407</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>-0.043856</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.102843</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96.255082</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>139.486680</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0.7000548346612248</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>-0.044695</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.096135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89.572640</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.114468</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-0.045786</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.093386</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>82.421255</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.526254</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>-0.044585</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.085693</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>93.793130</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.421965</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-0.045634</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.091224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>85.703858</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.519194</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>-0.045579</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.085786</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>81.287976</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>77.392839</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>-0.045385</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.081591</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>82.069548</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>69.387029</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>-0.046755</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.061189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>73.198704</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-9.069908</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>-0.047533</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-0.042242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>70.385045</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-211.284940</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>-0.046201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-0.087014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>87.814103</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>88.444763</t>
+        </is>
       </c>
     </row>
   </sheetData>
